--- a/app/data/absenteeism_data_24.xlsx
+++ b/app/data/absenteeism_data_24.xlsx
@@ -476,11 +476,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>94223</v>
+        <v>81069</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Benício Pinto</t>
+          <t>André Novaes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,26 +490,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45079</v>
+        <v>45078</v>
       </c>
       <c r="G2" t="n">
-        <v>4536.13</v>
+        <v>12303.11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>96693</v>
+        <v>66874</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Isabella Silva</t>
+          <t>Alana Caldeira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,26 +519,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45084</v>
+        <v>45098</v>
       </c>
       <c r="G3" t="n">
-        <v>6973.13</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>40787</v>
+        <v>46512</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gustavo Henrique Oliveira</t>
+          <t>Pedro Rocha</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,60 +548,60 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45083</v>
+        <v>45099</v>
       </c>
       <c r="G4" t="n">
-        <v>10650.99</v>
+        <v>6197.14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>32155</v>
+        <v>46792</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kaique Costa</t>
+          <t>Francisco Fernandes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45078</v>
+        <v>45100</v>
       </c>
       <c r="G5" t="n">
-        <v>4246.16</v>
+        <v>3926.29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>71430</v>
+        <v>1961</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gabrielly Carvalho</t>
+          <t>Marcelo Nunes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,143 +610,143 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45105</v>
+        <v>45087</v>
       </c>
       <c r="G6" t="n">
-        <v>4109.03</v>
+        <v>11525.04</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>77192</v>
+        <v>66415</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Isadora Alves</t>
+          <t>Rafaela Ribeiro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45091</v>
+        <v>45094</v>
       </c>
       <c r="G7" t="n">
-        <v>10912.02</v>
+        <v>8298.940000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>41843</v>
+        <v>46209</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lívia Sales</t>
+          <t>Mirella Cavalcanti</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45096</v>
+        <v>45102</v>
       </c>
       <c r="G8" t="n">
-        <v>9889.32</v>
+        <v>7227.92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>64267</v>
+        <v>1980</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dr. Lucas Viana</t>
+          <t>Melissa da Paz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45092</v>
+        <v>45096</v>
       </c>
       <c r="G9" t="n">
-        <v>6730.89</v>
+        <v>3914.37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>74957</v>
+        <v>88259</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Diogo Cardoso</t>
+          <t>Alícia Barbosa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45089</v>
+        <v>45080</v>
       </c>
       <c r="G10" t="n">
-        <v>11253.51</v>
+        <v>9903.57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5215</v>
+        <v>9586</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Leonardo Fernandes</t>
+          <t>Maria Vitória Martins</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45098</v>
+        <v>45084</v>
       </c>
       <c r="G11" t="n">
-        <v>4199.12</v>
+        <v>10735.67</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_24.xlsx
+++ b/app/data/absenteeism_data_24.xlsx
@@ -476,69 +476,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8871</v>
+        <v>19184</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Raquel Rocha</t>
+          <t>Renan Ribeiro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45106</v>
+        <v>45100</v>
       </c>
       <c r="G2" t="n">
-        <v>9002.41</v>
+        <v>6188.23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>82783</v>
+        <v>22853</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Esther da Mata</t>
+          <t>Ian Azevedo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45100</v>
+        <v>45092</v>
       </c>
       <c r="G3" t="n">
-        <v>4860.99</v>
+        <v>8264.91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>51070</v>
+        <v>37989</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kevin Sales</t>
+          <t>Evelyn Silva</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,84 +548,84 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45090</v>
+        <v>45081</v>
       </c>
       <c r="G4" t="n">
-        <v>4357.74</v>
+        <v>7295.52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>38683</v>
+        <v>70074</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rafael Pereira</t>
+          <t>Lorenzo da Mota</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45096</v>
+        <v>45106</v>
       </c>
       <c r="G5" t="n">
-        <v>4703.69</v>
+        <v>3717.87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>17144</v>
+        <v>22039</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rafael Dias</t>
+          <t>Cauã Barbosa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45099</v>
+        <v>45095</v>
       </c>
       <c r="G6" t="n">
-        <v>11107.58</v>
+        <v>4417.29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2965</v>
+        <v>60100</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rafael Costa</t>
+          <t>Dr. Theo Caldeira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,60 +635,60 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45091</v>
+        <v>45106</v>
       </c>
       <c r="G7" t="n">
-        <v>2578.59</v>
+        <v>9538.75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>66111</v>
+        <v>69387</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Srta. Ana Luiza Pereira</t>
+          <t>Dra. Rafaela Caldeira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45105</v>
+        <v>45101</v>
       </c>
       <c r="G8" t="n">
-        <v>2692.81</v>
+        <v>7101.51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>88112</v>
+        <v>6567</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fernando Aragão</t>
+          <t>Dra. Lorena Silveira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -700,68 +700,68 @@
         <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45080</v>
+        <v>45084</v>
       </c>
       <c r="G9" t="n">
-        <v>10221.91</v>
+        <v>4375.19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>72298</v>
+        <v>97576</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dr. Davi Dias</t>
+          <t>Eduarda Duarte</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45094</v>
+        <v>45082</v>
       </c>
       <c r="G10" t="n">
-        <v>9719.25</v>
+        <v>9541.84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>64701</v>
+        <v>89113</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Marcela Ribeiro</t>
+          <t>Maria Sophia Moura</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45090</v>
+        <v>45079</v>
       </c>
       <c r="G11" t="n">
-        <v>8268.23</v>
+        <v>11506.36</v>
       </c>
     </row>
   </sheetData>
